--- a/SCBAA/2019/Region 4B.xlsx
+++ b/SCBAA/2019/Region 4B.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9133646-86D0-495A-8A95-0570151D9BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC408136-5396-47B2-BDCC-16F5BA168E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13575" yWindow="1125" windowWidth="13560" windowHeight="12495" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="14625" windowHeight="12540" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Calapan" sheetId="1" r:id="rId1"/>
-    <sheet name="Puerto Prinsesa" sheetId="2" r:id="rId2"/>
+    <sheet name="Puerto Princesa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -855,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2049,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03AE607-41CB-4E2F-A5CB-921E88B841BE}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCBAA/2019/Region 4B.xlsx
+++ b/SCBAA/2019/Region 4B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC408136-5396-47B2-BDCC-16F5BA168E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63CBF8D-77EA-4A03-9E04-E167D780F47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="14625" windowHeight="12540" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Calapan" sheetId="1" r:id="rId1"/>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="E5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +987,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="37">
-        <f>27768832.04+15103510.37</f>
         <v>42872342.409999996</v>
       </c>
     </row>
@@ -1021,7 +1020,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>161861522.65000001</v>
       </c>
     </row>
@@ -1075,7 +1073,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>67335679.280000001</v>
       </c>
     </row>
@@ -1266,7 +1263,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>935899428.5</v>
       </c>
     </row>
@@ -1365,7 +1361,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="37">
-        <f>39488567.26+11238147.05</f>
         <v>50726714.310000002</v>
       </c>
     </row>
@@ -1377,7 +1372,6 @@
         <v>12</v>
       </c>
       <c r="E48" s="37">
-        <f>1880000+1819519</f>
         <v>3699519</v>
       </c>
     </row>
@@ -1845,7 +1839,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>832175249.27999997</v>
       </c>
     </row>
@@ -1903,7 +1896,6 @@
         <v>12</v>
       </c>
       <c r="E98" s="37">
-        <f>198500+3094995.11</f>
         <v>3293495.11</v>
       </c>
     </row>
@@ -2013,7 +2005,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="37">
-        <f>11256971.06+29077604.31+85755+578047.34</f>
         <v>40998377.710000001</v>
       </c>
     </row>
@@ -2022,7 +2013,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>59047339</v>
       </c>
     </row>
@@ -2034,7 +2024,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>891222588.27999997</v>
       </c>
     </row>
@@ -2056,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03AE607-41CB-4E2F-A5CB-921E88B841BE}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2192,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="35">
-        <f>8742727.29+6757723.14</f>
         <v>15500450.43</v>
       </c>
     </row>
@@ -2215,7 +2203,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>442392743.52000004</v>
       </c>
     </row>
@@ -2269,7 +2256,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>329688797.49000001</v>
       </c>
     </row>
@@ -2460,7 +2446,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>3431142401.6500001</v>
       </c>
     </row>
@@ -3028,7 +3013,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="36">
-        <f>SUM(E90:E91)</f>
         <v>0</v>
       </c>
     </row>
@@ -3038,7 +3022,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>2375454632.6599998</v>
       </c>
     </row>
@@ -3213,7 +3196,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>622704034.71000004</v>
       </c>
     </row>
@@ -3225,7 +3207,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2998158667.3699999</v>
       </c>
     </row>
